--- a/Surgeon.xlsx
+++ b/Surgeon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayakrak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\עומר קידר\CI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841EB68F-36C4-4C91-87C4-2FB362AC7F5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59023AC2-31D7-40E7-8D0F-9F4B46064285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C32A2E53-DB64-4CC9-AC3F-CC2A2433D68F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C32A2E53-DB64-4CC9-AC3F-CC2A2433D68F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFF17F8-8E1E-4D20-9969-883D20944B33}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,91 +453,6 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>219</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
